--- a/natmiOut/OldD0/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.2939681521198</v>
+        <v>5.197812</v>
       </c>
       <c r="H2">
-        <v>1.2939681521198</v>
+        <v>15.593436</v>
       </c>
       <c r="I2">
-        <v>0.02242899713675113</v>
+        <v>0.0842805842015622</v>
       </c>
       <c r="J2">
-        <v>0.02242899713675113</v>
+        <v>0.08428058420156222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>13.93819605982851</v>
+        <v>109.579304058364</v>
       </c>
       <c r="R2">
-        <v>13.93819605982851</v>
+        <v>986.213736525276</v>
       </c>
       <c r="S2">
-        <v>0.0006826068904942558</v>
+        <v>0.004817528884349206</v>
       </c>
       <c r="T2">
-        <v>0.0006826068904942558</v>
+        <v>0.004817528884349207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.2939681521198</v>
+        <v>5.197812</v>
       </c>
       <c r="H3">
-        <v>1.2939681521198</v>
+        <v>15.593436</v>
       </c>
       <c r="I3">
-        <v>0.02242899713675113</v>
+        <v>0.0842805842015622</v>
       </c>
       <c r="J3">
-        <v>0.02242899713675113</v>
+        <v>0.08428058420156222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>385.3962464848267</v>
+        <v>1567.660871941384</v>
       </c>
       <c r="R3">
-        <v>385.3962464848267</v>
+        <v>14108.94784747246</v>
       </c>
       <c r="S3">
-        <v>0.01887433153414848</v>
+        <v>0.06892041883583426</v>
       </c>
       <c r="T3">
-        <v>0.01887433153414848</v>
+        <v>0.06892041883583427</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.2939681521198</v>
+        <v>5.197812</v>
       </c>
       <c r="H4">
-        <v>1.2939681521198</v>
+        <v>15.593436</v>
       </c>
       <c r="I4">
-        <v>0.02242899713675113</v>
+        <v>0.0842805842015622</v>
       </c>
       <c r="J4">
-        <v>0.02242899713675113</v>
+        <v>0.08428058420156222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>58.64476023047443</v>
+        <v>239.802354340396</v>
       </c>
       <c r="R4">
-        <v>58.64476023047443</v>
+        <v>2158.221189063564</v>
       </c>
       <c r="S4">
-        <v>0.002872058712108393</v>
+        <v>0.01054263648137874</v>
       </c>
       <c r="T4">
-        <v>0.002872058712108393</v>
+        <v>0.01054263648137874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.3161492307509</v>
+        <v>42.36396166666667</v>
       </c>
       <c r="H5">
-        <v>42.3161492307509</v>
+        <v>127.091885</v>
       </c>
       <c r="I5">
-        <v>0.7334869783155016</v>
+        <v>0.6869158481221048</v>
       </c>
       <c r="J5">
-        <v>0.7334869783155016</v>
+        <v>0.6869158481221048</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>455.8155341836888</v>
+        <v>893.1091460384761</v>
       </c>
       <c r="R5">
-        <v>455.8155341836888</v>
+        <v>8037.982314346285</v>
       </c>
       <c r="S5">
-        <v>0.02232303399181302</v>
+        <v>0.03926452303096558</v>
       </c>
       <c r="T5">
-        <v>0.02232303399181302</v>
+        <v>0.03926452303096558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.3161492307509</v>
+        <v>42.36396166666667</v>
       </c>
       <c r="H6">
-        <v>42.3161492307509</v>
+        <v>127.091885</v>
       </c>
       <c r="I6">
-        <v>0.7334869783155016</v>
+        <v>0.6869158481221048</v>
       </c>
       <c r="J6">
-        <v>0.7334869783155016</v>
+        <v>0.6869158481221048</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>12603.46713518903</v>
+        <v>12776.97713677563</v>
       </c>
       <c r="R6">
-        <v>12603.46713518903</v>
+        <v>114992.7942309807</v>
       </c>
       <c r="S6">
-        <v>0.6172400986231918</v>
+        <v>0.5617251992976842</v>
       </c>
       <c r="T6">
-        <v>0.6172400986231918</v>
+        <v>0.5617251992976842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.3161492307509</v>
+        <v>42.36396166666667</v>
       </c>
       <c r="H7">
-        <v>42.3161492307509</v>
+        <v>127.091885</v>
       </c>
       <c r="I7">
-        <v>0.7334869783155016</v>
+        <v>0.6869158481221048</v>
       </c>
       <c r="J7">
-        <v>0.7334869783155016</v>
+        <v>0.6869158481221048</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>1917.837329650602</v>
+        <v>1954.471948360763</v>
       </c>
       <c r="R7">
-        <v>1917.837329650602</v>
+        <v>17590.24753524687</v>
       </c>
       <c r="S7">
-        <v>0.09392384570049675</v>
+        <v>0.08592612579345509</v>
       </c>
       <c r="T7">
-        <v>0.09392384570049675</v>
+        <v>0.08592612579345509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.0816351386704</v>
+        <v>14.110936</v>
       </c>
       <c r="H8">
-        <v>14.0816351386704</v>
+        <v>42.332808</v>
       </c>
       <c r="I8">
-        <v>0.2440840245477473</v>
+        <v>0.2288035676763329</v>
       </c>
       <c r="J8">
-        <v>0.2440840245477473</v>
+        <v>0.2288035676763329</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>151.6827064748243</v>
+        <v>297.4841234142586</v>
       </c>
       <c r="R8">
-        <v>151.6827064748243</v>
+        <v>2677.357110728328</v>
       </c>
       <c r="S8">
-        <v>0.007428483583104847</v>
+        <v>0.01307854954453972</v>
       </c>
       <c r="T8">
-        <v>0.007428483583104847</v>
+        <v>0.01307854954453971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.0816351386704</v>
+        <v>14.110936</v>
       </c>
       <c r="H9">
-        <v>14.0816351386704</v>
+        <v>42.332808</v>
       </c>
       <c r="I9">
-        <v>0.2440840245477473</v>
+        <v>0.2288035676763329</v>
       </c>
       <c r="J9">
-        <v>0.2440840245477473</v>
+        <v>0.2288035676763329</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>4194.082611632904</v>
+        <v>4255.860395425819</v>
       </c>
       <c r="R9">
-        <v>4194.082611632904</v>
+        <v>38302.74355883236</v>
       </c>
       <c r="S9">
-        <v>0.2054003027159304</v>
+        <v>0.1871040390236607</v>
       </c>
       <c r="T9">
-        <v>0.2054003027159304</v>
+        <v>0.1871040390236607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.0816351386704</v>
+        <v>14.110936</v>
       </c>
       <c r="H10">
-        <v>14.0816351386704</v>
+        <v>42.332808</v>
       </c>
       <c r="I10">
-        <v>0.2440840245477473</v>
+        <v>0.2288035676763329</v>
       </c>
       <c r="J10">
-        <v>0.2440840245477473</v>
+        <v>0.2288035676763329</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>638.2028143486273</v>
+        <v>651.0115553903548</v>
       </c>
       <c r="R10">
-        <v>638.2028143486273</v>
+        <v>5859.103998513193</v>
       </c>
       <c r="S10">
-        <v>0.03125523824871203</v>
+        <v>0.02862097910813253</v>
       </c>
       <c r="T10">
-        <v>0.03125523824871203</v>
+        <v>0.02862097910813253</v>
       </c>
     </row>
   </sheetData>
